--- a/codes/test_shell_output/testall_entifakh_details.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details.xlsx
@@ -376,15 +376,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>2.436402723038338</v>
+        <v>2.524698133918771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>2.436402723038338</v>
+        <v>2.524698133918771</v>
       </c>
       <c r="B6" s="1">
-        <v>2.436402723038338</v>
+        <v>2.524698133918771</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -397,7 +397,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>97.56359727696167</v>
+        <v>97.47530186608117</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_entifakh_details.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details.xlsx
@@ -376,15 +376,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>2.524698133918771</v>
+        <v>1.452599388379205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>2.524698133918771</v>
+        <v>1.452599388379205</v>
       </c>
       <c r="B6" s="1">
-        <v>2.524698133918771</v>
+        <v>1.452599388379205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -397,7 +397,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>97.47530186608117</v>
+        <v>98.54740061162079</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_entifakh_details.xlsx
+++ b/codes/test_shell_output/testall_entifakh_details.xlsx
@@ -376,15 +376,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="1">
-        <v>1.452599388379205</v>
+        <v>0.992881228924691</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>1.452599388379205</v>
+        <v>0.992881228924691</v>
       </c>
       <c r="B6" s="1">
-        <v>1.452599388379205</v>
+        <v>0.992881228924691</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -397,7 +397,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1">
-        <v>98.54740061162079</v>
+        <v>99.00711877107531</v>
       </c>
     </row>
   </sheetData>
